--- a/banco de dados/Flask/Sample - Chassis TESTE.xlsx
+++ b/banco de dados/Flask/Sample - Chassis TESTE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldrik\Desktop\FATEC\API 4°SEM\GITHUB\apiEmbraer4-sem\banco de dados\Python\dadosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldrik\Desktop\FATEC\API 4°SEM\GITHUB\apiEmbraer4-sem\banco de dados\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84550A6-BD1C-4FCB-A49C-D425A66145ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD41DF1-2D26-4482-80BE-D688BCA91481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{DED30719-2EC0-415D-A7FE-49D758E0BB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{DED30719-2EC0-415D-A7FE-49D758E0BB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,16 +443,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>10000998</v>
+        <v>10000999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -490,26 +490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30b6bfea-d640-4851-bb40-ee32586053b6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dca46ce9-43b0-4dcd-ad10-2a07d6b77317"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004487C04B3698004CB72116100E59CF04" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5226d86450b736373121a68200cf8f9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30b6bfea-d640-4851-bb40-ee32586053b6" xmlns:ns3="dca46ce9-43b0-4dcd-ad10-2a07d6b77317" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="236c0dce81577ce5610a5011189700d0" ns2:_="" ns3:_="">
     <xsd:import namespace="30b6bfea-d640-4851-bb40-ee32586053b6"/>
@@ -720,32 +700,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30b6bfea-d640-4851-bb40-ee32586053b6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dca46ce9-43b0-4dcd-ad10-2a07d6b77317"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83063E0C-559C-434D-88F4-BAFF7F024A66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dca46ce9-43b0-4dcd-ad10-2a07d6b77317"/>
-    <ds:schemaRef ds:uri="30b6bfea-d640-4851-bb40-ee32586053b6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AD65568-2DC6-45A0-AAD8-53C5F2B3983D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B39C4D-B840-46BD-BB14-B4E3A23CFFCE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -762,4 +737,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AD65568-2DC6-45A0-AAD8-53C5F2B3983D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83063E0C-559C-434D-88F4-BAFF7F024A66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dca46ce9-43b0-4dcd-ad10-2a07d6b77317"/>
+    <ds:schemaRef ds:uri="30b6bfea-d640-4851-bb40-ee32586053b6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>